--- a/米哈游笔试2/设计表格.xlsx
+++ b/米哈游笔试2/设计表格.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13128"/>
+    <workbookView windowWidth="30048" windowHeight="13128" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitInfos" sheetId="1" r:id="rId1"/>
-    <sheet name="战斗行为收益表" sheetId="3" r:id="rId2"/>
+    <sheet name="帧数表" sheetId="4" r:id="rId2"/>
+    <sheet name="战斗行为收益表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="85">
   <si>
     <t>编号</t>
   </si>
@@ -177,6 +178,27 @@
   </si>
   <si>
     <t>轻受击</t>
+  </si>
+  <si>
+    <t>播放速率</t>
+  </si>
+  <si>
+    <t>前摇</t>
+  </si>
+  <si>
+    <t>combo后摇</t>
+  </si>
+  <si>
+    <t>移动后摇</t>
+  </si>
+  <si>
+    <t>实际前摇</t>
+  </si>
+  <si>
+    <t>实际combo后摇</t>
+  </si>
+  <si>
+    <t>实际移动后摇</t>
   </si>
   <si>
     <t>当玩家面对敌方进攻</t>
@@ -966,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,21 +1013,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,9 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1405,7 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1405,375 +1415,375 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.62962962962963" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.1759259259259" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.6296296296296" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.9074074074074" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.6296296296296" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.4537037037037" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.0925925925926" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.4537037037037" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5462962962963" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="6.62962962962963" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.1759259259259" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.9074074074074" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.6296296296296" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.4537037037037" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.0925925925926" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.4537037037037" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.5462962962963" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:5">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:5">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16">
+      <c r="A4" s="10">
         <v>10001</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="16">
+      <c r="A5" s="10">
         <v>10002</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16">
+      <c r="A6" s="10">
         <v>10003</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16">
+      <c r="A7" s="10">
         <v>10004</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16">
+      <c r="A8" s="10">
         <v>10005</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16">
+      <c r="A9" s="10">
         <v>10006</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16">
+      <c r="A10" s="10">
         <v>11001</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16">
+      <c r="A11" s="10">
         <v>11002</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16">
+      <c r="A12" s="10">
         <v>11003</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="16">
+      <c r="A13" s="10">
         <v>11103</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16">
+      <c r="A14" s="10">
         <v>11004</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="16">
+      <c r="A15" s="10">
         <v>11005</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16">
+      <c r="A16" s="10">
         <v>12001</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="16">
+      <c r="A17" s="10">
         <v>13001</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="16">
+      <c r="A18" s="10">
         <v>14001</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="16">
+      <c r="A19" s="10">
         <v>14002</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="16">
+      <c r="A20" s="10">
         <v>14003</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="16">
+      <c r="A21" s="10">
         <v>14004</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="19"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="3:3">
-      <c r="C26" s="20"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="26" s="12" customFormat="1" spans="3:3">
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="19"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="4:4">
-      <c r="D28" s="19"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="21"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="31" ht="14" customHeight="1"/>
-    <row r="32" s="15" customFormat="1" spans="3:3">
-      <c r="C32" s="20"/>
+    <row r="32" s="12" customFormat="1" spans="3:3">
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
@@ -2251,6 +2261,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.62962962962963" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.1759259259259" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.9074074074074" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.6296296296296" style="10" customWidth="1"/>
+    <col min="7" max="8" width="16.4537037037037" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.0925925925926" style="10" customWidth="1"/>
+    <col min="10" max="11" width="16.4537037037037" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13" style="10" customWidth="1"/>
+    <col min="13" max="13" width="15.5462962962963" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="11" customFormat="1" spans="1:12">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="10">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J14" si="0">G4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K10" si="1">H4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L14" si="2">I4/F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="10">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10">
+        <v>11001</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10">
+        <v>11002</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10">
+        <v>34</v>
+      </c>
+      <c r="I11" s="10">
+        <v>60</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K11" s="10">
+        <f>H11/F11</f>
+        <v>34</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10">
+        <v>11003</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="G12" s="10">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43</v>
+      </c>
+      <c r="I12" s="10">
+        <v>75</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>18.4</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" ref="K12:K21" si="3">H12/F12</f>
+        <v>34.4</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10">
+        <v>11103</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10">
+        <v>11004</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="1:12">
+      <c r="A15" s="10">
+        <v>11005</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10">
+        <v>34</v>
+      </c>
+      <c r="I15" s="10">
+        <v>60</v>
+      </c>
+      <c r="J15" s="10">
+        <f>G15/F15</f>
+        <v>18</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="L15" s="10">
+        <f>I15/F15</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10">
+        <v>12001</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" ref="J16:J21" si="4">G16/F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" ref="L16:L21" si="5">I16/F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="10">
+        <v>13001</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="10">
+        <v>14001</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="10">
+        <v>14002</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="10">
+        <v>14003</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="10">
+        <v>14004</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="26" s="12" customFormat="1" spans="3:3">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" ht="14" customHeight="1" spans="4:4">
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="17"/>
+    </row>
+    <row r="31" ht="14" customHeight="1"/>
+    <row r="32" s="12" customFormat="1" spans="3:3">
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="36" spans="12:13">
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:I5">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:I6">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="0" priority="71">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:H8">
+    <cfRule type="expression" dxfId="0" priority="72">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="0" priority="70">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="74">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:H9">
+    <cfRule type="expression" dxfId="0" priority="76">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="0" priority="62">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="0" priority="68">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:H16">
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="0" priority="88">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="0" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="0" priority="84">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="0" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="0" priority="78">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:H21">
+    <cfRule type="expression" dxfId="0" priority="80">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="0" priority="50">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="0" priority="48">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:I23">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="0" priority="56">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="0" priority="54">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:I24">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="0" priority="52">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:I25">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="0" priority="44">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:I26">
+    <cfRule type="expression" dxfId="0" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:I27">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:I31">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:K31">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="expression" dxfId="0" priority="60">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D13">
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D30">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I13">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:L36">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:M36">
+    <cfRule type="expression" dxfId="0" priority="36">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4 C17 B5:B21 A5:A9 M8:XFD9 M14:XFD15 M17:XFD21">
+    <cfRule type="expression" dxfId="0" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:J1048576 E18:H18 E4:I4 C18 A16:A17 C16:G16 A19:A20 A32 C7:C9 F20:H20 C20:C23 E15:G15 C32:H32 A29:B30 H15:I16 M7:XFD7 M22:XFD23 M16:XFD16 K37:L1048576 M4:XFD4 K33:K36">
+    <cfRule type="expression" dxfId="0" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25 D14 A25:A27 A23 C23 C27 J4:L21 J27:XFD27 M25:XFD26 L32 M23:XFD23">
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5 M5:XFD5">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6 M6:XFD6">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 D22:D23">
+    <cfRule type="expression" dxfId="0" priority="58">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:I7 E22:I23">
+    <cfRule type="expression" dxfId="0" priority="59">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:D10 C11:C15 A10:A15 A22 J22:L26 J32:K32 J28:K30">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12 E10:H10 M10:XFD10">
+    <cfRule type="expression" dxfId="0" priority="34">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13 F11:H11 M11:XFD13">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H13">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 E17:I17">
+    <cfRule type="expression" dxfId="0" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C19 E19:H19">
+    <cfRule type="expression" dxfId="0" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24 M24:XFD24">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28 B32">
+    <cfRule type="expression" dxfId="0" priority="40">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 L28:XFD28">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:I28 I32">
+    <cfRule type="expression" dxfId="0" priority="38">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C30 L29:L30">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:I30">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:XFD32 M29:XFD30 N33:XFD36 M37:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31 L31:XFD31">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D4 D5 D6 D7 D8 D9 D13 D16 D29 D30 D31 D2:D3 D10:D12 D14:D15 D17:D21 D22:D28 E2:E3"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C4:J14"/>
@@ -2280,44 +3448,44 @@
     <row r="5" ht="16.2" spans="3:10">
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="15.6" spans="3:10">
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -2325,53 +3493,53 @@
       <c r="C7" s="1"/>
       <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="15.6" spans="3:10">
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" ht="15.6" spans="3:10">
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2379,80 +3547,80 @@
       <c r="C10" s="1"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.6" spans="3:10">
       <c r="C11" s="1"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.6" spans="3:10">
       <c r="C12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.6" spans="3:10">
       <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="1"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/米哈游笔试2/设计表格.xlsx
+++ b/米哈游笔试2/设计表格.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>编号</t>
   </si>
@@ -183,6 +183,9 @@
     <t>播放速率</t>
   </si>
   <si>
+    <t>拼刀开</t>
+  </si>
+  <si>
     <t>前摇</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
   </si>
   <si>
     <t>移动后摇</t>
+  </si>
+  <si>
+    <t>实际拼刀开</t>
   </si>
   <si>
     <t>实际前摇</t>
@@ -2263,14 +2269,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2280,16 +2286,16 @@
     <col min="3" max="3" width="18.6296296296296" style="13" customWidth="1"/>
     <col min="4" max="4" width="31.9074074074074" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.6296296296296" style="10" customWidth="1"/>
-    <col min="7" max="8" width="16.4537037037037" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.0925925925926" style="10" customWidth="1"/>
-    <col min="10" max="11" width="16.4537037037037" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13" style="10" customWidth="1"/>
-    <col min="13" max="13" width="15.5462962962963" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="10"/>
+    <col min="6" max="7" width="10.6296296296296" style="10" customWidth="1"/>
+    <col min="8" max="9" width="16.4537037037037" style="10" customWidth="1"/>
+    <col min="10" max="11" width="14.0925925925926" style="10" customWidth="1"/>
+    <col min="12" max="13" width="16.4537037037037" style="10" customWidth="1"/>
+    <col min="14" max="14" width="13" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15.5462962962963" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:12">
+    <row r="1" s="11" customFormat="1" spans="1:14">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2325,6 +2331,12 @@
       </c>
       <c r="L1" s="11" t="s">
         <v>60</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="1:5">
@@ -2361,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="10">
         <v>10001</v>
       </c>
@@ -2380,20 +2392,24 @@
       <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
-        <f t="shared" ref="J4:J14" si="0">G4/F4</f>
-        <v>0</v>
-      </c>
       <c r="K4" s="10">
-        <f t="shared" ref="K4:K10" si="1">H4/F4</f>
+        <f t="shared" ref="K4:K10" si="0">G4/F4</f>
         <v>0</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L14" si="2">I4/F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <f t="shared" ref="L4:L15" si="1">H4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M11" si="2">I4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N15" si="3">J4/F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="10">
         <v>10002</v>
       </c>
@@ -2409,20 +2425,24 @@
       <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="10">
         <v>10003</v>
       </c>
@@ -2438,20 +2458,24 @@
       <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="10">
         <v>10004</v>
       </c>
@@ -2467,20 +2491,24 @@
       <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="10">
         <v>10005</v>
       </c>
@@ -2496,20 +2524,24 @@
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="10">
         <v>10006</v>
       </c>
@@ -2525,20 +2557,24 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="10">
         <v>11001</v>
       </c>
@@ -2557,20 +2593,24 @@
       <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="10">
         <v>11002</v>
       </c>
@@ -2590,28 +2630,35 @@
         <v>1</v>
       </c>
       <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10">
         <v>18</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>34</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>60</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
+      <c r="K11" s="10">
+        <f>G11/F11</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K11" s="10">
-        <f>H11/F11</f>
+      <c r="M11" s="10">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="2"/>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="10">
         <v>11003</v>
       </c>
@@ -2631,28 +2678,35 @@
         <v>1.25</v>
       </c>
       <c r="G12" s="10">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10">
         <v>23</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>43</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>75</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="0"/>
+      <c r="K12" s="10">
+        <f t="shared" ref="K12:K21" si="4">G12/F12</f>
+        <v>10.4</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="1"/>
         <v>18.4</v>
       </c>
-      <c r="K12" s="10">
-        <f t="shared" ref="K12:K21" si="3">H12/F12</f>
+      <c r="M12" s="10">
+        <f t="shared" ref="M12:M21" si="5">I12/F12</f>
         <v>34.4</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="2"/>
+      <c r="N12" s="10">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="10">
         <v>11103</v>
       </c>
@@ -2671,20 +2725,24 @@
       <c r="F13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="10">
         <v>11004</v>
       </c>
@@ -2700,21 +2758,25 @@
       <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" ht="14" customHeight="1" spans="1:12">
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="1:14">
       <c r="A15" s="10">
         <v>11005</v>
       </c>
@@ -2734,28 +2796,35 @@
         <v>1</v>
       </c>
       <c r="G15" s="10">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10">
         <v>18</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>34</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>60</v>
       </c>
-      <c r="J15" s="10">
-        <f>G15/F15</f>
+      <c r="K15" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K15" s="10">
+      <c r="M15" s="10">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="L15" s="10">
-        <f>I15/F15</f>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="10">
         <v>12001</v>
       </c>
@@ -2774,20 +2843,24 @@
       <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" ref="J16:J21" si="4">G16/F16</f>
-        <v>0</v>
-      </c>
       <c r="K16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16:L21" si="5">I16/F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <f t="shared" ref="L16:L21" si="6">H16/F16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16:N21" si="7">J16/F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="10">
         <v>13001</v>
       </c>
@@ -2803,20 +2876,24 @@
       <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="10">
         <v>14001</v>
       </c>
@@ -2832,20 +2909,24 @@
       <c r="F18" s="10">
         <v>1</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="10">
         <v>14002</v>
       </c>
@@ -2861,20 +2942,24 @@
       <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="N19" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="10">
         <v>14003</v>
       </c>
@@ -2890,20 +2975,24 @@
       <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="10">
+      <c r="K20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L20" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="N20" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="10">
         <v>14004</v>
       </c>
@@ -2919,16 +3008,20 @@
       <c r="F21" s="10">
         <v>1</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2951,17 +3044,17 @@
     <row r="32" s="12" customFormat="1" spans="3:3">
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="12:13">
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="34" spans="12:13">
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-    </row>
-    <row r="36" spans="12:13">
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
+    <row r="33" spans="14:15">
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="14:15">
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="36" spans="14:15">
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
@@ -2969,7 +3062,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:I5">
+  <conditionalFormatting sqref="E5:J5">
     <cfRule type="expression" dxfId="0" priority="21">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -2979,7 +3072,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:I6">
+  <conditionalFormatting sqref="E6:J6">
     <cfRule type="expression" dxfId="0" priority="17">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -2994,12 +3087,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H8">
+  <conditionalFormatting sqref="F8:I8">
     <cfRule type="expression" dxfId="0" priority="72">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="J8">
     <cfRule type="expression" dxfId="0" priority="70">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3014,27 +3107,27 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:H9">
+  <conditionalFormatting sqref="F9:I9">
     <cfRule type="expression" dxfId="0" priority="76">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="J9">
     <cfRule type="expression" dxfId="0" priority="73">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="expression" dxfId="0" priority="31">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F14:G14">
     <cfRule type="expression" dxfId="0" priority="62">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="expression" dxfId="0" priority="61">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3054,12 +3147,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:H16">
+  <conditionalFormatting sqref="F16:I16">
     <cfRule type="expression" dxfId="0" priority="69">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="J16">
     <cfRule type="expression" dxfId="0" priority="67">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3074,7 +3167,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="J18">
     <cfRule type="expression" dxfId="0" priority="87">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3084,7 +3177,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+  <conditionalFormatting sqref="J19">
     <cfRule type="expression" dxfId="0" priority="84">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3099,7 +3192,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J20">
     <cfRule type="expression" dxfId="0" priority="81">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3114,12 +3207,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:H21">
+  <conditionalFormatting sqref="F21:I21">
     <cfRule type="expression" dxfId="0" priority="80">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="J21">
     <cfRule type="expression" dxfId="0" priority="77">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3144,7 +3237,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:I23">
+  <conditionalFormatting sqref="F23:K23">
     <cfRule type="expression" dxfId="0" priority="47">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3164,7 +3257,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:I24">
+  <conditionalFormatting sqref="E24:K24">
     <cfRule type="expression" dxfId="0" priority="55">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3179,7 +3272,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:I25">
+  <conditionalFormatting sqref="E25:K25">
     <cfRule type="expression" dxfId="0" priority="51">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3204,7 +3297,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:I26">
+  <conditionalFormatting sqref="F26:K26">
     <cfRule type="expression" dxfId="0" priority="42">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3219,7 +3312,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:I27">
+  <conditionalFormatting sqref="E27:K27">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3259,12 +3352,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:I31">
+  <conditionalFormatting sqref="F31:K31">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:K31">
+  <conditionalFormatting sqref="L31:M31">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3289,42 +3382,42 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I13">
+  <conditionalFormatting sqref="J11:J13">
     <cfRule type="expression" dxfId="0" priority="24">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L36">
+  <conditionalFormatting sqref="N33:N36">
     <cfRule type="expression" dxfId="0" priority="35">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M36">
+  <conditionalFormatting sqref="O33:O36">
     <cfRule type="expression" dxfId="0" priority="36">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 C17 B5:B21 A5:A9 M8:XFD9 M14:XFD15 M17:XFD21">
+  <conditionalFormatting sqref="A4:D4 C17 B5:B21 A5:A9 O14:XFD15 O17:XFD21 O8:XFD9">
     <cfRule type="expression" dxfId="0" priority="92">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:J1048576 E18:H18 E4:I4 C18 A16:A17 C16:G16 A19:A20 A32 C7:C9 F20:H20 C20:C23 E15:G15 C32:H32 A29:B30 H15:I16 M7:XFD7 M22:XFD23 M16:XFD16 K37:L1048576 M4:XFD4 K33:K36">
+  <conditionalFormatting sqref="A33:L1048576 C7:C9 A19:A20 C20:C23 G15:J16 C16:F16 A16:A17 A29:B30 E18:I18 C18 E15:F15 F20:I20 A32 E4:J4 C32:I32 O7:XFD7 O22:XFD23 O16:XFD16 M37:N1048576 O4:XFD4 M33:M36">
     <cfRule type="expression" dxfId="0" priority="93">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25 D14 A25:A27 A23 C23 C27 J4:L21 J27:XFD27 M25:XFD26 L32 M23:XFD23">
+  <conditionalFormatting sqref="C25 D14 A25:A27 A23 C23 C27 K4:N21 L27:XFD27 O25:XFD26 N32 O23:XFD23">
     <cfRule type="expression" dxfId="0" priority="63">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5 M5:XFD5">
+  <conditionalFormatting sqref="C5 O5:XFD5">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6 M6:XFD6">
+  <conditionalFormatting sqref="C6 O6:XFD6">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3334,42 +3427,42 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:I7 E22:I23">
+  <conditionalFormatting sqref="E7:J7 E22:K23">
     <cfRule type="expression" dxfId="0" priority="59">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:D10 C11:C15 A10:A15 A22 J22:L26 J32:K32 J28:K30">
+  <conditionalFormatting sqref="C10:D10 C11:C15 A10:A15 A22 L22:N26 L32:M32 L28:M30">
     <cfRule type="expression" dxfId="0" priority="33">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12 E10:H10 M10:XFD10">
+  <conditionalFormatting sqref="E11:E12 E10:I10 O10:XFD10">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13 F11:H11 M11:XFD13">
+  <conditionalFormatting sqref="E13 F11:I11 O11:XFD13">
     <cfRule type="expression" dxfId="0" priority="27">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H13">
+  <conditionalFormatting sqref="F12:I13">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21 E17:I17">
+  <conditionalFormatting sqref="A21 E17:J17">
     <cfRule type="expression" dxfId="0" priority="90">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C19 E19:H19">
+  <conditionalFormatting sqref="A18 C19 E19:I19">
     <cfRule type="expression" dxfId="0" priority="86">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 M24:XFD24">
+  <conditionalFormatting sqref="C24 O24:XFD24">
     <cfRule type="expression" dxfId="0" priority="57">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3379,32 +3472,32 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 L28:XFD28">
+  <conditionalFormatting sqref="C28 N28:XFD28">
     <cfRule type="expression" dxfId="0" priority="41">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:I28 I32">
+  <conditionalFormatting sqref="F28:K28 J32:K32">
     <cfRule type="expression" dxfId="0" priority="38">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C30 L29:L30">
+  <conditionalFormatting sqref="C29:C30 N29:N30">
     <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:I30">
+  <conditionalFormatting sqref="F29:K30">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:XFD32 M29:XFD30 N33:XFD36 M37:XFD1048576">
+  <conditionalFormatting sqref="O29:XFD30 P33:XFD36 O37:XFD1048576 O32:XFD32">
     <cfRule type="expression" dxfId="0" priority="64">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 L31:XFD31">
+  <conditionalFormatting sqref="C31 N31:XFD31">
     <cfRule type="expression" dxfId="0" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3448,44 +3541,44 @@
     <row r="5" ht="16.2" spans="3:10">
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="15.6" spans="3:10">
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -3493,15 +3586,15 @@
       <c r="C7" s="1"/>
       <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -3509,37 +3602,37 @@
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" ht="15.6" spans="3:10">
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3547,15 +3640,15 @@
       <c r="C10" s="1"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -3563,37 +3656,37 @@
       <c r="C11" s="1"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.6" spans="3:10">
       <c r="C12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -3601,15 +3694,15 @@
       <c r="C13" s="1"/>
       <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1"/>
     </row>

--- a/米哈游笔试2/设计表格.xlsx
+++ b/米哈游笔试2/设计表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13128" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13128" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UnitInfos" sheetId="1" r:id="rId1"/>
@@ -2271,12 +2271,12 @@
   <sheetPr/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" ref="K4:K10" si="0">G4/F4</f>
+        <f t="shared" ref="K4:K11" si="0">G4/F4</f>
         <v>0</v>
       </c>
       <c r="L4" s="10">
@@ -2630,32 +2630,32 @@
         <v>1</v>
       </c>
       <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
         <v>10</v>
       </c>
-      <c r="H11" s="10">
-        <v>18</v>
-      </c>
       <c r="I11" s="10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J11" s="10">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K11" s="10">
-        <f>G11/F11</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3516,8 +3516,8 @@
   <sheetPr/>
   <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3625,14 +3625,14 @@
       <c r="F9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>73</v>
+      <c r="G9" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3645,10 +3645,10 @@
       <c r="F10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
-        <v>73</v>
+      <c r="I10" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -3661,7 +3661,7 @@
       <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="5"/>
       <c r="I11" s="9" t="s">
         <v>78</v>

--- a/米哈游笔试2/设计表格.xlsx
+++ b/米哈游笔试2/设计表格.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13128" activeTab="2"/>
+    <workbookView windowWidth="30048" windowHeight="13128" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UnitInfos" sheetId="1" r:id="rId1"/>
     <sheet name="帧数表" sheetId="4" r:id="rId2"/>
     <sheet name="战斗行为收益表" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="172">
   <si>
     <t>编号</t>
   </si>
@@ -207,6 +209,39 @@
     <t>实际移动后摇</t>
   </si>
   <si>
+    <t>使用场景</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>操作难度</t>
+  </si>
+  <si>
+    <t>额外收益</t>
+  </si>
+  <si>
+    <t>动作特点</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>考察要点</t>
+  </si>
+  <si>
+    <t>预想体验</t>
+  </si>
+  <si>
+    <t>功能特点</t>
+  </si>
+  <si>
+    <t>伤害效果</t>
+  </si>
+  <si>
+    <t>群体能力</t>
+  </si>
+  <si>
     <t>当玩家面对敌方进攻</t>
   </si>
   <si>
@@ -225,6 +260,45 @@
     <t>行为收益</t>
   </si>
   <si>
+    <t>爆发攻击A</t>
+  </si>
+  <si>
+    <t>交锋后</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>中等速度的两次踢击</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>玩家能够把握攻击范围，输出空挡时间，打出此次爆发攻击</t>
+  </si>
+  <si>
+    <t>蓄积力量，伺机而发，猛烈畅快的攻击</t>
+  </si>
+  <si>
+    <t>特殊攻击A</t>
+  </si>
+  <si>
+    <t>吸引聚怪、安全状态、获取核力、点亮爆发</t>
+  </si>
+  <si>
+    <t>瞬发、中等伤害</t>
+  </si>
+  <si>
+    <t>强</t>
+  </si>
+  <si>
     <t>攻击</t>
   </si>
   <si>
@@ -234,27 +308,121 @@
     <t>命中敌人但来不及躲闪</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>高</t>
   </si>
   <si>
+    <t>爆发攻击B</t>
+  </si>
+  <si>
+    <t>蓄力过后的一次猛烈拳击</t>
+  </si>
+  <si>
+    <t>较大</t>
+  </si>
+  <si>
+    <r>
+      <t>能够</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非常准确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把握敌人的攻击节奏，产生攻击的碰撞</t>
+    </r>
+  </si>
+  <si>
+    <t>短兵相接，狭路相逢勇者胜，酣畅淋漓的爆发一击</t>
+  </si>
+  <si>
+    <t>特殊攻击B</t>
+  </si>
+  <si>
+    <t>状态变化、获取核力、常态爆发能力</t>
+  </si>
+  <si>
+    <t>持续、高伤害</t>
+  </si>
+  <si>
     <t>恰好</t>
   </si>
   <si>
     <t>产生交锋</t>
   </si>
   <si>
+    <t>爆发攻击C</t>
+  </si>
+  <si>
+    <t>交锋后、常时</t>
+  </si>
+  <si>
+    <t>位移与伤害能力</t>
+  </si>
+  <si>
+    <t>交锋后：快速的一段回旋踢
+常时：快速的一段闪避，接一段回旋踢</t>
+  </si>
+  <si>
+    <t>较小</t>
+  </si>
+  <si>
+    <r>
+      <t>能够</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比较准确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把握敌人的攻击节奏，闪开攻击</t>
+    </r>
+  </si>
+  <si>
+    <t>灵动飘逸，行踪诡秘，神出鬼没的快速攻击</t>
+  </si>
+  <si>
+    <t>特殊攻击C</t>
+  </si>
+  <si>
+    <t>接招状态、反击攻击</t>
+  </si>
+  <si>
+    <t>瞬发、极高伤害</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
     <t>过慢</t>
   </si>
   <si>
     <t>被打断</t>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
     <t>闪避</t>
   </si>
   <si>
@@ -277,6 +445,138 @@
   </si>
   <si>
     <t>受击</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>前摇帧数</t>
+  </si>
+  <si>
+    <t>攻击帧</t>
+  </si>
+  <si>
+    <t>后摇帧数</t>
+  </si>
+  <si>
+    <t>动作设定</t>
+  </si>
+  <si>
+    <t>攻击1</t>
+  </si>
+  <si>
+    <t>短暂前摇过后，一次简单的上撩拳</t>
+  </si>
+  <si>
+    <t>快速的一次普通攻击</t>
+  </si>
+  <si>
+    <t>攻击2</t>
+  </si>
+  <si>
+    <t>中等前摇，是攻击A的变招，三次连续的上撩拳</t>
+  </si>
+  <si>
+    <t>125；185；245</t>
+  </si>
+  <si>
+    <t>攻击2的变招，玩家若认为是攻击1，在进行闪避或攻击后依然有时间反应</t>
+  </si>
+  <si>
+    <t>攻击3</t>
+  </si>
+  <si>
+    <t>中等前摇的双手下砸猛烈攻击</t>
+  </si>
+  <si>
+    <t>较慢的一次猛烈攻击</t>
+  </si>
+  <si>
+    <t>攻击4</t>
+  </si>
+  <si>
+    <t>中等前摇，是攻击C的变招，三次连续的下砸攻击</t>
+  </si>
+  <si>
+    <t>125；155；185</t>
+  </si>
+  <si>
+    <t>攻击3的变招，玩家若认为是攻击3，如果成功交锋或闪避，则后续会被打断，若失败，则必须闪避以躲开后续的攻击</t>
+  </si>
+  <si>
+    <t>攻击5</t>
+  </si>
+  <si>
+    <t>中等前摇的突进攻击，快速缩短玩家与敌人的距离</t>
+  </si>
+  <si>
+    <t>快速缩短距离的攻击</t>
+  </si>
+  <si>
+    <t>攻击6</t>
+  </si>
+  <si>
+    <t>短前摇的闪避攻击，向后撤一步然后突进攻击，能闪开玩家的攻击后反击</t>
+  </si>
+  <si>
+    <t>快速后撤步，玩家的攻击被闪避之后需要快速反应过来，选择下一步行动方案</t>
+  </si>
+  <si>
+    <t>攻击7</t>
+  </si>
+  <si>
+    <t>中等前摇两次回旋攻击</t>
+  </si>
+  <si>
+    <t>125；135</t>
+  </si>
+  <si>
+    <t>两下连续的快速攻击，若被命中第一下则第二下也会命中，需要谨慎对待</t>
+  </si>
+  <si>
+    <t>无敌/霸体帧</t>
+  </si>
+  <si>
+    <t>交锋帧</t>
+  </si>
+  <si>
+    <t>闪避后摇</t>
+  </si>
+  <si>
+    <t>连招后摇</t>
+  </si>
+  <si>
+    <t>攻击后摇</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>闪避攻击</t>
+  </si>
+  <si>
+    <t>17-35</t>
+  </si>
+  <si>
+    <t>普攻1</t>
+  </si>
+  <si>
+    <t>0-25</t>
+  </si>
+  <si>
+    <t>普攻2</t>
+  </si>
+  <si>
+    <t>普攻3</t>
+  </si>
+  <si>
+    <t>特殊攻击</t>
+  </si>
+  <si>
+    <t>15;60</t>
   </si>
 </sst>
 </file>
@@ -298,13 +598,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -994,44 +1294,101 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1104,13 +1461,28 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.0499893185216834"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1421,375 +1793,375 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.62962962962963" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.1759259259259" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.6296296296296" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.9074074074074" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.6296296296296" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.4537037037037" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.0925925925926" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.4537037037037" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.5462962962963" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.62962962962963" style="31" customWidth="1"/>
+    <col min="2" max="2" width="24.1759259259259" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" style="32" customWidth="1"/>
+    <col min="4" max="4" width="31.9074074074074" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.6296296296296" style="31" customWidth="1"/>
+    <col min="7" max="7" width="16.4537037037037" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.0925925925926" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.4537037037037" style="31" customWidth="1"/>
+    <col min="10" max="10" width="13" style="31" customWidth="1"/>
+    <col min="11" max="11" width="15.5462962962963" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" s="29" customFormat="1" spans="1:5">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="29" customFormat="1" spans="1:5">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="29" customFormat="1" spans="1:5">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="31">
         <v>10001</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="31">
         <v>10002</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="31">
         <v>10003</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="31">
         <v>10004</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
+      <c r="A8" s="31">
         <v>10005</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="A9" s="31">
         <v>10006</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="31">
         <v>11001</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="31">
         <v>11002</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="31">
         <v>11003</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10">
+      <c r="A13" s="31">
         <v>11103</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10">
+      <c r="A14" s="31">
         <v>11004</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="10">
+      <c r="A15" s="31">
         <v>11005</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10">
+      <c r="A16" s="31">
         <v>12001</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10">
+      <c r="A17" s="31">
         <v>13001</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10">
+      <c r="A18" s="31">
         <v>14001</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10">
+      <c r="A19" s="31">
         <v>14002</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10">
+      <c r="A20" s="31">
         <v>14003</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10">
+      <c r="A21" s="31">
         <v>14004</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="15"/>
-    </row>
-    <row r="26" s="12" customFormat="1" spans="3:3">
-      <c r="C26" s="16"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="26" s="30" customFormat="1" spans="3:3">
+      <c r="C26" s="35"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="4:4">
-      <c r="D28" s="15"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="17"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="31" ht="14" customHeight="1"/>
-    <row r="32" s="12" customFormat="1" spans="3:3">
-      <c r="C32" s="16"/>
+    <row r="32" s="30" customFormat="1" spans="3:3">
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
@@ -2281,780 +2653,780 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.62962962962963" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.1759259259259" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.6296296296296" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.9074074074074" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="10" customWidth="1"/>
-    <col min="6" max="7" width="10.6296296296296" style="10" customWidth="1"/>
-    <col min="8" max="9" width="16.4537037037037" style="10" customWidth="1"/>
-    <col min="10" max="11" width="14.0925925925926" style="10" customWidth="1"/>
-    <col min="12" max="13" width="16.4537037037037" style="10" customWidth="1"/>
-    <col min="14" max="14" width="13" style="10" customWidth="1"/>
-    <col min="15" max="15" width="15.5462962962963" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.62962962962963" style="31" customWidth="1"/>
+    <col min="2" max="2" width="24.1759259259259" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" style="32" customWidth="1"/>
+    <col min="4" max="4" width="31.9074074074074" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.6296296296296" style="31" customWidth="1"/>
+    <col min="8" max="9" width="16.4537037037037" style="31" customWidth="1"/>
+    <col min="10" max="11" width="14.0925925925926" style="31" customWidth="1"/>
+    <col min="12" max="13" width="16.4537037037037" style="31" customWidth="1"/>
+    <col min="14" max="14" width="13" style="31" customWidth="1"/>
+    <col min="15" max="15" width="15.5462962962963" style="31" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:14">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" s="29" customFormat="1" spans="1:14">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="29" customFormat="1" spans="1:5">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="29" customFormat="1" spans="1:5">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="10">
+      <c r="A4" s="31">
         <v>10001</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="31">
         <v>1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="31">
         <f t="shared" ref="K4:K11" si="0">G4/F4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="31">
         <f t="shared" ref="L4:L15" si="1">H4/F4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="31">
         <f t="shared" ref="M4:M11" si="2">I4/F4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="31">
         <f t="shared" ref="N4:N15" si="3">J4/F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="10">
+      <c r="A5" s="31">
         <v>10002</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="31">
         <v>1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10">
+      <c r="A6" s="31">
         <v>10003</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="31">
         <v>1</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10">
+      <c r="A7" s="31">
         <v>10004</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="31">
         <v>1</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10">
+      <c r="A8" s="31">
         <v>10005</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="31">
         <v>1</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10">
+      <c r="A9" s="31">
         <v>10006</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="31">
         <v>1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10">
+      <c r="A10" s="31">
         <v>11001</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="31">
         <v>1</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10">
+      <c r="A11" s="31">
         <v>11002</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="31">
         <v>1</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="31">
         <v>10</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="31">
         <v>30</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="31">
         <v>45</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="31">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="31">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10">
+      <c r="A12" s="31">
         <v>11003</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="31">
         <v>1.25</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="31">
         <v>13</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="31">
         <v>23</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="31">
         <v>43</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="31">
         <v>75</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="31">
         <f t="shared" ref="K12:K21" si="4">G12/F12</f>
         <v>10.4</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="31">
         <f t="shared" si="1"/>
         <v>18.4</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="31">
         <f t="shared" ref="M12:M21" si="5">I12/F12</f>
         <v>34.4</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="31">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10">
+      <c r="A13" s="31">
         <v>11103</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="31">
         <v>1</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="10">
+      <c r="A14" s="31">
         <v>11004</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="31">
         <v>1</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:14">
-      <c r="A15" s="10">
+      <c r="A15" s="31">
         <v>11005</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="31">
         <v>1</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="31">
         <v>10</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="31">
         <v>18</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="31">
         <v>34</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="31">
         <v>60</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="31">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="31">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="31">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="31">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10">
+      <c r="A16" s="31">
         <v>12001</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="31">
         <v>1</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="31">
         <f t="shared" ref="L16:L21" si="6">H16/F16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="31">
         <f t="shared" ref="N16:N21" si="7">J16/F16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="10">
+      <c r="A17" s="31">
         <v>13001</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="31">
         <v>1</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10">
+      <c r="A18" s="31">
         <v>14001</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="31">
         <v>1</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10">
+      <c r="A19" s="31">
         <v>14002</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="31">
         <v>1</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="10">
+      <c r="A20" s="31">
         <v>14003</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="31">
         <v>1</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10">
+      <c r="A21" s="31">
         <v>14004</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="31">
         <v>1</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="15"/>
-    </row>
-    <row r="26" s="12" customFormat="1" spans="3:3">
-      <c r="C26" s="16"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="26" s="30" customFormat="1" spans="3:3">
+      <c r="C26" s="35"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="4:4">
-      <c r="D28" s="15"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="17"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="31" ht="14" customHeight="1"/>
-    <row r="32" s="12" customFormat="1" spans="3:3">
-      <c r="C32" s="16"/>
+    <row r="32" s="30" customFormat="1" spans="3:3">
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="14:15">
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
     </row>
     <row r="34" spans="14:15">
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
     </row>
     <row r="36" spans="14:15">
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
@@ -3514,207 +3886,388 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:J14"/>
+  <dimension ref="C4:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="7" width="29.8888888888889" customWidth="1"/>
-    <col min="8" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="1" max="3" width="8.88888888888889" style="13"/>
+    <col min="4" max="4" width="20.8888888888889" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" style="13" customWidth="1"/>
+    <col min="6" max="6" width="29.8888888888889" style="13" customWidth="1"/>
+    <col min="7" max="9" width="9.66666666666667" style="13" customWidth="1"/>
+    <col min="10" max="13" width="8.88888888888889" style="13"/>
+    <col min="14" max="14" width="11.4444444444444" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" style="13" customWidth="1"/>
+    <col min="16" max="16" width="5.66666666666667" style="13" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="13" customWidth="1"/>
+    <col min="18" max="18" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="19" max="19" width="8.88888888888889" style="13"/>
+    <col min="20" max="20" width="11.8796296296296" style="13" customWidth="1"/>
+    <col min="21" max="21" width="20.7777777777778" style="13" customWidth="1"/>
+    <col min="22" max="22" width="10.0462962962963" style="13" customWidth="1"/>
+    <col min="23" max="23" width="20.7777777777778" style="13" customWidth="1"/>
+    <col min="24" max="24" width="32.0740740740741" style="13" customWidth="1"/>
+    <col min="25" max="25" width="8.88888888888889" style="13"/>
+    <col min="26" max="26" width="14.8703703703704" style="14" customWidth="1"/>
+    <col min="27" max="27" width="23.287037037037" style="14" customWidth="1"/>
+    <col min="28" max="28" width="16.0462962962963" style="14" customWidth="1"/>
+    <col min="29" max="31" width="8.88888888888889" style="14"/>
+    <col min="32" max="16384" width="8.88888888888889" style="13"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="16.2" spans="3:10">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+    <row r="4" ht="16.2" spans="3:29">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="P4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="R4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="T4" s="25"/>
+      <c r="U4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="V4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" ht="15.6" spans="3:10">
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="W4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="X4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="AB4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="AC4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" ht="15.6" spans="3:10">
-      <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="5" ht="46.8" spans="3:29">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" ht="15.6" spans="3:10">
-      <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
+      <c r="F5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9" t="s">
+      <c r="H5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" ht="15.6" spans="3:10">
-      <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+      <c r="I5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="J5" s="15"/>
+      <c r="N5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="15.6" spans="3:10">
-      <c r="C10" s="1"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" ht="15.6" spans="3:10">
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" ht="15.6" spans="3:10">
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" ht="15.6" spans="3:10">
-      <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4" t="s">
+      <c r="T5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="V5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="W5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" ht="47.4" spans="3:29">
+      <c r="C6" s="15"/>
+      <c r="D6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="N6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="62.4" spans="3:29">
+      <c r="C7" s="15"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="N7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC7" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="15"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="15"/>
+      <c r="D9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="15"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="15"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="15"/>
+      <c r="D12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="15"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="1"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3728,6 +4281,659 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H12:H13"/>
   </mergeCells>
+  <conditionalFormatting sqref="S$1:XFD$1048576 N14:R1048576 A$1:M$1048576 N1:R9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="25.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="18.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="35.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="8" customFormat="1" ht="16.2" spans="3:12">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="31.2" spans="3:12">
+      <c r="C4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="12">
+        <v>60</v>
+      </c>
+      <c r="F4" s="12">
+        <v>65</v>
+      </c>
+      <c r="G4" s="12">
+        <v>120</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="46.8" spans="3:12">
+      <c r="C5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="12">
+        <v>120</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="12">
+        <v>300</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="31.2" spans="3:12">
+      <c r="C6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="12">
+        <v>120</v>
+      </c>
+      <c r="F6" s="12">
+        <v>125</v>
+      </c>
+      <c r="G6" s="12">
+        <v>180</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="62.4" spans="3:12">
+      <c r="C7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="12">
+        <v>180</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="12">
+        <v>240</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="31.2" spans="3:12">
+      <c r="C8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="12">
+        <v>120</v>
+      </c>
+      <c r="F8" s="12">
+        <v>125</v>
+      </c>
+      <c r="G8" s="12">
+        <v>180</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="46.8" spans="3:12">
+      <c r="C9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="12">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12">
+        <v>65</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="31.2" spans="3:12">
+      <c r="C10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="12">
+        <v>120</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="12">
+        <v>190</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" ht="15.6" spans="3:12">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="G7:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="10" width="8.88888888888889" style="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" ht="15.6" spans="7:20">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" ht="15.6" spans="7:20">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" ht="15.6" spans="7:20">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" ht="15.6" spans="7:20">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" ht="16.2" spans="7:20">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" ht="16.2" spans="7:20">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" s="6">
+        <v>50</v>
+      </c>
+      <c r="O12" s="6">
+        <v>50</v>
+      </c>
+      <c r="P12" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>50</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" ht="16.2" spans="7:20">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="6">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="6">
+        <v>30</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="6">
+        <v>50</v>
+      </c>
+      <c r="P13" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>55</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" ht="16.2" spans="7:20">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="6">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="6">
+        <v>10</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" s="6">
+        <v>35</v>
+      </c>
+      <c r="P14" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>45</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" ht="16.2" spans="7:20">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="6">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="6">
+        <v>10</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" s="6">
+        <v>35</v>
+      </c>
+      <c r="P15" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>45</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" ht="16.2" spans="7:20">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="6">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="6">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" s="6">
+        <v>35</v>
+      </c>
+      <c r="P16" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>45</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" ht="16.2" spans="7:20">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="6">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N17" s="6">
+        <v>80</v>
+      </c>
+      <c r="O17" s="6">
+        <v>100</v>
+      </c>
+      <c r="P17" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>100</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" ht="16.2" spans="7:20">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" ht="15.6" spans="7:20">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" ht="15.6" spans="7:20">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" ht="15.6" spans="7:20">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" ht="15.6" spans="7:20">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" ht="15.6" spans="7:20">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
